--- a/data/이스타TV_upload_cnt.xlsx
+++ b/data/이스타TV_upload_cnt.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="video info" sheetId="1" r:id="rId1"/>
     <sheet name="upload count" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'upload count'!$B$1:$B$710</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6145" uniqueCount="3478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5947" uniqueCount="3478">
   <si>
     <t>title</t>
   </si>
@@ -10838,7 +10837,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D1745"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F720" sqref="F720"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -35307,7 +35308,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B710"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -41006,965 +41009,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2453</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3472</v>
-      </c>
-      <c r="D1">
-        <v>48391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>711</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2448</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3468</v>
-      </c>
-      <c r="D2">
-        <v>27518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>711</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2452</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3471</v>
-      </c>
-      <c r="D3">
-        <v>26923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>711</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2446</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3466</v>
-      </c>
-      <c r="D4">
-        <v>21759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>711</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2450</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3470</v>
-      </c>
-      <c r="D5">
-        <v>12011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>711</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2449</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3469</v>
-      </c>
-      <c r="D6">
-        <v>9358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>711</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2454</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3473</v>
-      </c>
-      <c r="D7">
-        <v>8957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>711</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2455</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3474</v>
-      </c>
-      <c r="D8">
-        <v>8179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>711</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2447</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3467</v>
-      </c>
-      <c r="D9">
-        <v>5648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>711</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2451</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3227</v>
-      </c>
-      <c r="D10">
-        <v>5547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <f>SUM(D1:D10)</f>
-        <v>174291</v>
-      </c>
-      <c r="E11">
-        <f>D11/10</f>
-        <v>17429.099999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2955</v>
-      </c>
-      <c r="D13">
-        <v>263297</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>787</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2529</v>
-      </c>
-      <c r="D14">
-        <v>222597</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>814</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2551</v>
-      </c>
-      <c r="D15">
-        <v>189798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>815</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2552</v>
-      </c>
-      <c r="D16">
-        <v>151263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>720</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2464</v>
-      </c>
-      <c r="D17">
-        <v>133627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>751</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2494</v>
-      </c>
-      <c r="D18">
-        <v>128493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>995</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2696</v>
-      </c>
-      <c r="D19">
-        <v>128372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>752</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2495</v>
-      </c>
-      <c r="D20">
-        <v>123972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>810</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2472</v>
-      </c>
-      <c r="D21">
-        <v>121053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>834</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2480</v>
-      </c>
-      <c r="D22">
-        <v>120993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>753</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2496</v>
-      </c>
-      <c r="D23">
-        <v>116793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>750</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2493</v>
-      </c>
-      <c r="D24">
-        <v>112914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>754</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2497</v>
-      </c>
-      <c r="D25">
-        <v>111704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2919</v>
-      </c>
-      <c r="D26">
-        <v>108052</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>813</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2550</v>
-      </c>
-      <c r="D27">
-        <v>107661</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>881</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2607</v>
-      </c>
-      <c r="D28">
-        <v>107314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>816</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2553</v>
-      </c>
-      <c r="D29">
-        <v>107257</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>792</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2532</v>
-      </c>
-      <c r="D30">
-        <v>106143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>991</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2571</v>
-      </c>
-      <c r="D31">
-        <v>99981</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>885</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2475</v>
-      </c>
-      <c r="D32">
-        <v>94175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>831</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2565</v>
-      </c>
-      <c r="D33">
-        <v>92863</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>748</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2491</v>
-      </c>
-      <c r="D34">
-        <v>91963</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>992</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2694</v>
-      </c>
-      <c r="D35">
-        <v>89943</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2747</v>
-      </c>
-      <c r="D36">
-        <v>88202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>718</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2462</v>
-      </c>
-      <c r="D37">
-        <v>86932</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>721</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2465</v>
-      </c>
-      <c r="D38">
-        <v>85141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>835</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2568</v>
-      </c>
-      <c r="D39">
-        <v>84403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>789</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2530</v>
-      </c>
-      <c r="D40">
-        <v>83467</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
-        <v>812</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2549</v>
-      </c>
-      <c r="D41">
-        <v>82784</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>749</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2492</v>
-      </c>
-      <c r="D42">
-        <v>80914</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" t="s">
-        <v>791</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2460</v>
-      </c>
-      <c r="D43">
-        <v>80404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>993</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2695</v>
-      </c>
-      <c r="D44">
-        <v>79440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2954</v>
-      </c>
-      <c r="D45">
-        <v>78472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>719</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2463</v>
-      </c>
-      <c r="D46">
-        <v>78275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
-        <v>717</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2461</v>
-      </c>
-      <c r="D47">
-        <v>78072</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" t="s">
-        <v>883</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2609</v>
-      </c>
-      <c r="D48">
-        <v>74950</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" t="s">
-        <v>989</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2692</v>
-      </c>
-      <c r="D49">
-        <v>73901</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" t="s">
-        <v>833</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2567</v>
-      </c>
-      <c r="D50">
-        <v>73767</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
-        <v>716</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2460</v>
-      </c>
-      <c r="D51">
-        <v>73206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2956</v>
-      </c>
-      <c r="D52">
-        <v>72218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>715</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2459</v>
-      </c>
-      <c r="D53">
-        <v>68240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" t="s">
-        <v>793</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2533</v>
-      </c>
-      <c r="D54">
-        <v>67732</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>19</v>
-      </c>
-      <c r="B55" t="s">
-        <v>790</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2531</v>
-      </c>
-      <c r="D55">
-        <v>66094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" t="s">
-        <v>880</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2606</v>
-      </c>
-      <c r="D56">
-        <v>62244</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" t="s">
-        <v>837</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2570</v>
-      </c>
-      <c r="D57">
-        <v>61015</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C58" t="s">
-        <v>2459</v>
-      </c>
-      <c r="D58">
-        <v>55527</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>994</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2516</v>
-      </c>
-      <c r="D59">
-        <v>54059</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>181</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C60" t="s">
-        <v>2957</v>
-      </c>
-      <c r="D60">
-        <v>53618</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" t="s">
-        <v>788</v>
-      </c>
-      <c r="C61" t="s">
-        <v>2469</v>
-      </c>
-      <c r="D61">
-        <v>51708</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>836</v>
-      </c>
-      <c r="C62" t="s">
-        <v>2569</v>
-      </c>
-      <c r="D62">
-        <v>48180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" t="s">
-        <v>884</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2610</v>
-      </c>
-      <c r="D63">
-        <v>45334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" t="s">
-        <v>832</v>
-      </c>
-      <c r="C64" t="s">
-        <v>2566</v>
-      </c>
-      <c r="D64">
-        <v>44337</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" t="s">
-        <v>882</v>
-      </c>
-      <c r="C65" t="s">
-        <v>2608</v>
-      </c>
-      <c r="D65">
-        <v>39456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s">
-        <v>990</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2693</v>
-      </c>
-      <c r="D66">
-        <v>36623</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" t="s">
-        <v>811</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2548</v>
-      </c>
-      <c r="D67">
-        <v>31061</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" t="s">
-        <v>886</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2611</v>
-      </c>
-      <c r="D68">
-        <v>22706</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D69">
-        <f>SUM(D13:D68)</f>
-        <v>5092710</v>
-      </c>
-      <c r="E69">
-        <f>D69/56</f>
-        <v>90941.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>